--- a/编码20150228最终版(查).xlsx
+++ b/编码20150228最终版(查).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winnieaz/Documents/药品知识图谱/drug/crawler/crawler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winnieaz/Documents/repos/PythonExerciseBook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D044CCF0-5E35-7142-B15E-01655B1A670B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB6BE47-BB52-A845-91A9-9CEC72843297}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="960" windowWidth="17640" windowHeight="15500" xr2:uid="{D46EF638-180C-E34D-B580-33598DCD1C6E}"/>
+    <workbookView xWindow="11160" yWindow="960" windowWidth="17640" windowHeight="15500" xr2:uid="{D46EF638-180C-E34D-B580-33598DCD1C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>属性名</t>
   </si>
@@ -166,12 +166,28 @@
     <t xml:space="preserve">2007space  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>供应商名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不重要数据项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商简称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -204,6 +220,13 @@
       <sz val="10"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -261,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -274,6 +297,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -590,19 +616,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06554F3-D724-2E41-9DAC-36EB0923026B}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,8 +640,11 @@
       <c r="E1" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -629,8 +660,11 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -646,13 +680,16 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="b">
         <v>1</v>
@@ -663,13 +700,16 @@
       <c r="E4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="b">
         <v>1</v>
@@ -680,14 +720,15 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="3" t="b">
         <v>1</v>
       </c>
@@ -697,8 +738,9 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -714,8 +756,11 @@
       <c r="E7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -731,8 +776,11 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -748,8 +796,11 @@
       <c r="E9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -765,8 +816,11 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -782,8 +836,11 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -799,8 +856,11 @@
       <c r="E12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -816,8 +876,11 @@
       <c r="E13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -833,8 +896,11 @@
       <c r="E14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -850,8 +916,11 @@
       <c r="E15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -867,8 +936,11 @@
       <c r="E16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -884,8 +956,11 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -900,6 +975,9 @@
       </c>
       <c r="E18" t="s">
         <v>32</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/编码20150228最终版(查).xlsx
+++ b/编码20150228最终版(查).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winnieaz/Documents/repos/PythonExerciseBook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB6BE47-BB52-A845-91A9-9CEC72843297}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC6B581-87B8-D84E-9F99-AA95709410F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="960" windowWidth="17640" windowHeight="15500" xr2:uid="{D46EF638-180C-E34D-B580-33598DCD1C6E}"/>
+    <workbookView xWindow="14560" yWindow="740" windowWidth="14240" windowHeight="15720" xr2:uid="{D46EF638-180C-E34D-B580-33598DCD1C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>属性名</t>
   </si>
@@ -619,7 +619,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -681,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -720,9 +720,7 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
@@ -756,9 +754,7 @@
       <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
@@ -776,9 +772,7 @@
       <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
@@ -796,9 +790,7 @@
       <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
@@ -816,9 +808,7 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
@@ -836,9 +826,7 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
@@ -856,9 +844,7 @@
       <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
@@ -876,9 +862,7 @@
       <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
@@ -896,9 +880,7 @@
       <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
@@ -916,9 +898,7 @@
       <c r="E15" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
@@ -936,9 +916,7 @@
       <c r="E16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
@@ -956,9 +934,7 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
@@ -976,9 +952,7 @@
       <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="F18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
